--- a/data/trans_camb/P16B17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B17-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">

--- a/data/trans_camb/P16B17-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B17-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -692,17 +692,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -843,17 +843,17 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -999,22 +999,22 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1155,22 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1311,22 +1311,22 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1467,22 +1467,22 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
